--- a/code/ff.xlsx
+++ b/code/ff.xlsx
@@ -458,7 +458,7 @@
         <v>0.4718292894556023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3584714531898499</v>
+        <v>0.2800672054290771</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.2663785756567554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2302574217319489</v>
+        <v>0.5050702095031738</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.1126086634691826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1627039313316345</v>
+        <v>0.2254764288663864</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.7030151262713138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3668118417263031</v>
+        <v>0.4782959818840027</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.5562226589382566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3432400822639465</v>
+        <v>0.4113345146179199</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0.5378783324099137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3229804635047913</v>
+        <v>0.3134105503559113</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.2197002012579308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1910901218652725</v>
+        <v>0.1981226354837418</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.3821838585822958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2398589551448822</v>
+        <v>0.3989981710910797</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.5078522717367344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2997565567493439</v>
+        <v>0.2829685211181641</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0.532087093917524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3461123704910278</v>
+        <v>0.3128669559955597</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0.5890553171549628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3976642191410065</v>
+        <v>0.3899155855178833</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.6717420392927915</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3460845947265625</v>
+        <v>0.4201388955116272</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.3405811454798062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2002029418945312</v>
+        <v>0.4892378449440002</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.6085114210329622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3391251564025879</v>
+        <v>0.4352708160877228</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>0.5695969435725253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3056843280792236</v>
+        <v>0.4048510193824768</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0.4108766264549114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2577455043792725</v>
+        <v>0.3685481548309326</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.5539285091427796</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3175245523452759</v>
+        <v>0.4081117212772369</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5459438871344521</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3040043413639069</v>
+        <v>0.2867115437984467</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.7066600746344167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4177926182746887</v>
+        <v>0.3832661211490631</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.4385378859241147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2327111065387726</v>
+        <v>0.3734669983386993</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.8674903038936619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4784742295742035</v>
+        <v>0.4816844463348389</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.8945560214903108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5078809857368469</v>
+        <v>0.4197415709495544</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.5725550184541643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.338417112827301</v>
+        <v>0.3584442138671875</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.4471852805991552</v>
       </c>
       <c r="C25" t="n">
-        <v>0.277927577495575</v>
+        <v>0.4227321147918701</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.34342427790938</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2606276273727417</v>
+        <v>0.263829231262207</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.4240418383866151</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2650609612464905</v>
+        <v>0.2888121604919434</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.4522596650946362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3138247430324554</v>
+        <v>0.3095260262489319</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.6297627593167441</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3338178992271423</v>
+        <v>0.4296737909317017</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.5283024670622899</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3507561087608337</v>
+        <v>0.4202159643173218</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.4815338900163211</v>
       </c>
       <c r="C31" t="n">
-        <v>0.249545693397522</v>
+        <v>0.3340487480163574</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4071213553944633</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3068732619285583</v>
+        <v>0.4823575615882874</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.8406700331974928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4437211453914642</v>
+        <v>0.3467177748680115</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.7041773732732988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.390238344669342</v>
+        <v>0.3988374173641205</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.6391503981322637</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3921294808387756</v>
+        <v>0.3905721604824066</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.3806438523032271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2583001852035522</v>
+        <v>0.4176549911499023</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.643701813248332</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3632948994636536</v>
+        <v>0.3931379020214081</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.5725362028759602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3662422895431519</v>
+        <v>0.3096957206726074</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.5376940996563513</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3471355736255646</v>
+        <v>0.368190735578537</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.5038707096362306</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2998476922512054</v>
+        <v>0.3629042208194733</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.7644148734355436</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4029545783996582</v>
+        <v>0.4268488585948944</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0.2005450778655851</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1935469955205917</v>
+        <v>0.2456227242946625</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0.5003927376628529</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3470231890678406</v>
+        <v>0.4668451547622681</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0.5899791305515257</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3984143733978271</v>
+        <v>0.3181836307048798</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0.4089015870847384</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2323698997497559</v>
+        <v>0.3965823650360107</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0.2896455357733722</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2603011131286621</v>
+        <v>0.5014473795890808</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0.333304719284623</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2333823591470718</v>
+        <v>0.2325086444616318</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0.5160024065185888</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2924927175045013</v>
+        <v>0.4145849049091339</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0.4596630687509267</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2526007294654846</v>
+        <v>0.3724363446235657</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0.4085868760299292</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2526963651180267</v>
+        <v>0.3627507984638214</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0.8137514634091724</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448175460100174</v>
+        <v>0.4022236466407776</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0.4904422594384888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3161142468452454</v>
+        <v>0.2402229756116867</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.8003206252938104</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4884340465068817</v>
+        <v>0.3631929457187653</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.5787334776234582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3766341209411621</v>
+        <v>0.3148026764392853</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.6234335561879363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3622199892997742</v>
+        <v>0.4293551445007324</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.186764377897887</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166445404291153</v>
+        <v>0.27241250872612</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.5445282202999282</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3542207479476929</v>
+        <v>0.4933944940567017</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.4592514831876472</v>
       </c>
       <c r="C58" t="n">
-        <v>0.361298143863678</v>
+        <v>0.6561784148216248</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.3078086357472377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2466129809617996</v>
+        <v>0.3350593447685242</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1986992955207825</v>
+        <v>0.3100391626358032</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.8096109494943318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4010947942733765</v>
+        <v>0.4400167763233185</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.5738071917082077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2983664870262146</v>
+        <v>0.3983228802680969</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.8731756409905234</v>
       </c>
       <c r="C63" t="n">
-        <v>0.49176886677742</v>
+        <v>0.4487341940402985</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.4695497323174547</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3084768652915955</v>
+        <v>0.30240797996521</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.6068667258742793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3630630970001221</v>
+        <v>0.3491632342338562</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.2434721805478675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2256516218185425</v>
+        <v>0.3594244718551636</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.4114272944254174</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2404624670743942</v>
+        <v>0.3230836987495422</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.5479266382031331</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2867111563682556</v>
+        <v>0.3165478110313416</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.5477011793988809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3496097922325134</v>
+        <v>0.4838224053382874</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.3082284957436617</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2216993272304535</v>
+        <v>0.3634368181228638</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.7038711963848128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4699040055274963</v>
+        <v>0.3693427443504333</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.371488874654042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2050384730100632</v>
+        <v>0.2836818099021912</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.4762348626730635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2808520197868347</v>
+        <v>0.3165944516658783</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6939883973878687</v>
       </c>
       <c r="C74" t="n">
-        <v>0.395131915807724</v>
+        <v>0.405279815196991</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.449127131789536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2575936317443848</v>
+        <v>0.2906521856784821</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.3719303008548852</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241622731089592</v>
+        <v>0.4206132590770721</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.5872753902738808</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3196002840995789</v>
+        <v>0.4777728617191315</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.9301819164990726</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4719893336296082</v>
+        <v>0.4196963012218475</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.8883460463517403</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4812847375869751</v>
+        <v>0.4249959886074066</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.8202330231885704</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4708866775035858</v>
+        <v>0.4481522738933563</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.3658223575711927</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3855469226837158</v>
+        <v>0.5372742414474487</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.6392568663399482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4110693633556366</v>
+        <v>0.4842504560947418</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.7362068195589295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4463639855384827</v>
+        <v>0.394522488117218</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.2303442812301529</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211270198225975</v>
+        <v>0.2895062267780304</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.6188220064441875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3212018609046936</v>
+        <v>0.3234328627586365</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.2756885458031615</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1986942887306213</v>
+        <v>0.3446456789970398</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.5289969440122068</v>
       </c>
       <c r="C87" t="n">
-        <v>0.319686084985733</v>
+        <v>0.3669667840003967</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.5595404770727759</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3516578674316406</v>
+        <v>0.382499635219574</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.3140643235168202</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2420628666877747</v>
+        <v>0.4464388489723206</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.2526676624648406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2879408299922943</v>
+        <v>0.4964281320571899</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.4127381904675428</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2576844990253448</v>
+        <v>0.3522796034812927</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.3951342779447693</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2570831477642059</v>
+        <v>0.2305463850498199</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.4814090148225293</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3093459606170654</v>
+        <v>0.4735907316207886</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.5793623800096949</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3109601140022278</v>
+        <v>0.3403803408145905</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.3417202854593807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229651153087616</v>
+        <v>0.4784649610519409</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.4094408923469865</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2428496479988098</v>
+        <v>0.3666864037513733</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.6004866854835119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3591760396957397</v>
+        <v>0.4896670281887054</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.453425349718437</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3227367997169495</v>
+        <v>0.3098426461219788</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.6777444604059943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3716527819633484</v>
+        <v>0.5253282189369202</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.8167969978866652</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4744416773319244</v>
+        <v>0.4104952216148376</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.4517791695442719</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2189347296953201</v>
+        <v>0.3300824463367462</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.5668168483183852</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3014898896217346</v>
+        <v>0.4282324016094208</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.6175863780762662</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2885795533657074</v>
+        <v>0.3996620178222656</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.3522266313967708</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2331543117761612</v>
+        <v>0.3648944497108459</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.6159886993189322</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2741120755672455</v>
+        <v>0.4461191594600677</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.5821438587348391</v>
       </c>
       <c r="C106" t="n">
-        <v>0.395224928855896</v>
+        <v>0.4908168911933899</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.7152093964646979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4524984061717987</v>
+        <v>0.3370438516139984</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.7156048294914429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4334989786148071</v>
+        <v>0.3189630806446075</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.6024929436827366</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3817744851112366</v>
+        <v>0.3065722584724426</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.7442742806809305</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4458110332489014</v>
+        <v>0.3066080808639526</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.326528740540571</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265632301568985</v>
+        <v>0.3607300519943237</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.3305320236080006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2824503183364868</v>
+        <v>0.5089449286460876</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.6557340559483333</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3647280633449554</v>
+        <v>0.3386413156986237</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.3110496799551626</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1962341070175171</v>
+        <v>0.2359439432621002</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.8101871045343427</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4717699289321899</v>
+        <v>0.4533505737781525</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.5934770141581799</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3513568639755249</v>
+        <v>0.3734950721263885</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.2076183463965128</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2094230353832245</v>
+        <v>0.2637119889259338</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.1579186337034669</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1732850670814514</v>
+        <v>0.4580274224281311</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.6516583977688162</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4201074540615082</v>
+        <v>0.368303507566452</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.5003805716847527</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3350562453269958</v>
+        <v>0.3259987235069275</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.3852531313044293</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30369633436203</v>
+        <v>0.2617943584918976</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.7363774751900829</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3559675514698029</v>
+        <v>0.3732270002365112</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.3481182439465114</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1771685928106308</v>
+        <v>0.3428545296192169</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.2329683492779049</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1719671785831451</v>
+        <v>0.2769818007946014</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.4668998612469218</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2715562880039215</v>
+        <v>0.322685718536377</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.5865494033047405</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3075116276741028</v>
+        <v>0.37175652384758</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.5463434594426863</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4033827185630798</v>
+        <v>0.2996761798858643</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.4072987375182022</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2985689640045166</v>
+        <v>0.3665753901004791</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.8172234851210609</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4292969107627869</v>
+        <v>0.4714722633361816</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.2655126790533767</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262748122215271</v>
+        <v>0.302157461643219</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4863153398036957</v>
+        <v>0.4475076496601105</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.4561219958759843</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2904912829399109</v>
+        <v>0.4679469168186188</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.6529596409868981</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3697324991226196</v>
+        <v>0.4600743353366852</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.7513501027688749</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4734005928039551</v>
+        <v>0.4278516173362732</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.4505662836508093</v>
       </c>
       <c r="C135" t="n">
-        <v>0.319894552230835</v>
+        <v>0.4271031320095062</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.3716043921484325</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2593694031238556</v>
+        <v>0.4346279203891754</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.3602442582966465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259196549654007</v>
+        <v>0.2805741727352142</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.3383342725218927</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2602798640727997</v>
+        <v>0.4058345854282379</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.5414278154421422</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3202254474163055</v>
+        <v>0.3605205416679382</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.5978038603527056</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3085875511169434</v>
+        <v>0.3607170283794403</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.7606450446375734</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4018742442131042</v>
+        <v>0.3971821665763855</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.3248788099659551</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2190110087394714</v>
+        <v>0.2971713542938232</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.6449254707683332</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3852537274360657</v>
+        <v>0.4267672896385193</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.2910065864195924</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2005975991487503</v>
+        <v>0.3873430490493774</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.7244609142174261</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4088215827941895</v>
+        <v>0.3903496563434601</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.6177515676508191</v>
       </c>
       <c r="C146" t="n">
-        <v>0.331175833940506</v>
+        <v>0.4558952450752258</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.4409377566944086</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2745212912559509</v>
+        <v>0.4509144425392151</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.6822471714911353</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4585016369819641</v>
+        <v>0.3636813163757324</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.229207907078953</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2024387568235397</v>
+        <v>0.3543416261672974</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.4447499953820174</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2437346130609512</v>
+        <v>0.3307032883167267</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.6523426750322254</v>
       </c>
       <c r="C151" t="n">
-        <v>0.399916410446167</v>
+        <v>0.3726504743099213</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.2425283543276618</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2036210298538208</v>
+        <v>0.2745541334152222</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.8305519596701881</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4505714774131775</v>
+        <v>0.5477388501167297</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.6398363875567967</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3472954332828522</v>
+        <v>0.3414418995380402</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.6951128286309145</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4962145090103149</v>
+        <v>0.3405948877334595</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.5222646030184412</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2666210830211639</v>
+        <v>0.4420493245124817</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.2279199221234276</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1971094608306885</v>
+        <v>0.4101766049861908</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.6305093830814368</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3588143289089203</v>
+        <v>0.3505046963691711</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.7553070853748489</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4608376026153564</v>
+        <v>0.3846090137958527</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.6472029960903064</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3582215011119843</v>
+        <v>0.4996880888938904</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.2258732884862843</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1684451997280121</v>
+        <v>0.3142108917236328</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.5055944330192897</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3139708340167999</v>
+        <v>0.3828082084655762</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.6422702459482565</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4045563340187073</v>
+        <v>0.4479875862598419</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.5382414352954227</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3200055658817291</v>
+        <v>0.4734975695610046</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.5649658988436861</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3456245064735413</v>
+        <v>0.3600292801856995</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.5303799613737538</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3035330772399902</v>
+        <v>0.4801726341247559</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.5533608565303745</v>
       </c>
       <c r="C167" t="n">
-        <v>0.349120020866394</v>
+        <v>0.4322681725025177</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.4531888718182911</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2899675667285919</v>
+        <v>0.3327767252922058</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.401848969295322</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2410541921854019</v>
+        <v>0.2784067094326019</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.4417667562438528</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2490995526313782</v>
+        <v>0.5053969621658325</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.4393118911669173</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2946138381958008</v>
+        <v>0.3886117339134216</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.4234953893952308</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3321286737918854</v>
+        <v>0.3678858876228333</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.612644032798873</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4179776310920715</v>
+        <v>0.331304669380188</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.7158558277887077</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3796415030956268</v>
+        <v>0.3595305979251862</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.3603752761038813</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3054040670394897</v>
+        <v>0.3259125649929047</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.4191622526074782</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2627924978733063</v>
+        <v>0.3813636302947998</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.5051903811501658</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2740492820739746</v>
+        <v>0.572335422039032</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.5505311948166947</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3379248678684235</v>
+        <v>0.3099215626716614</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.393052318371826</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2718541026115417</v>
+        <v>0.3699355125427246</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.574582470847295</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3202790319919586</v>
+        <v>0.4243488609790802</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.7543874769813708</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4198689460754395</v>
+        <v>0.4059304296970367</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.312601707276444</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2349995523691177</v>
+        <v>0.3774996101856232</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.5140489288122608</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2942069470882416</v>
+        <v>0.3333151638507843</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.6237623318494331</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4012328386306763</v>
+        <v>0.3242374956607819</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.7854766509746001</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4430077075958252</v>
+        <v>0.389291524887085</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.2052686182343323</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1685348451137543</v>
+        <v>0.2695153951644897</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.4651482820979406</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3074085712432861</v>
+        <v>0.2965600192546844</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.6162745222965682</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4364646971225739</v>
+        <v>0.3403877913951874</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.5397773290067381</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3812335133552551</v>
+        <v>0.3076494634151459</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.4897300470567975</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3536723852157593</v>
+        <v>0.4413090646266937</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.6569320533147465</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3236981332302094</v>
+        <v>0.4276572465896606</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.5879092420299313</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3068799674510956</v>
+        <v>0.2927473187446594</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.6467239737471064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3230079412460327</v>
+        <v>0.4025132954120636</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.3413952725234781</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2815335392951965</v>
+        <v>0.2287614047527313</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.7381181548437215</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4344366192817688</v>
+        <v>0.390975296497345</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.5887458521465457</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2930181324481964</v>
+        <v>0.3836422264575958</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.6326483208753498</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2803178429603577</v>
+        <v>0.409216582775116</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.6789825665000031</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4054732918739319</v>
+        <v>0.3891631066799164</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.5594678183516649</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2898629903793335</v>
+        <v>0.345697283744812</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.4366450205489274</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2926265001296997</v>
+        <v>0.4453403651714325</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.3705161228666759</v>
       </c>
       <c r="C201" t="n">
-        <v>0.2397582978010178</v>
+        <v>0.4243420362472534</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.6371207124728865</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4162944853305817</v>
+        <v>0.4336207211017609</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>0.4631410104767616</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3336998224258423</v>
+        <v>0.4952230453491211</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>0.4886493512147775</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3342572748661041</v>
+        <v>0.3614612519741058</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.4188489226799816</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2524551749229431</v>
+        <v>0.4850036203861237</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>0.6922659580528661</v>
       </c>
       <c r="C206" t="n">
-        <v>0.373640239238739</v>
+        <v>0.4183411002159119</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>0.5198235067264689</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2816038727760315</v>
+        <v>0.4064033329486847</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>0.1787363632444668</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1570239216089249</v>
+        <v>0.3881812691688538</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>0.9479314522908466</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5001085996627808</v>
+        <v>0.4166781008243561</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>0.6128070595014323</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3890681266784668</v>
+        <v>0.4719864726066589</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>0.5380828192106912</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3430821895599365</v>
+        <v>0.4284951388835907</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.7870022409526501</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5110015869140625</v>
+        <v>0.3680971562862396</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.4579198743362359</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3002223670482635</v>
+        <v>0.4276140034198761</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>0.4867562538305085</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2910612523555756</v>
+        <v>0.2878839671611786</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>0.5693761428778963</v>
       </c>
       <c r="C215" t="n">
-        <v>0.3141308128833771</v>
+        <v>0.426360011100769</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>0.3386943968433396</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2545609772205353</v>
+        <v>0.459390789270401</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>0.3623159110575627</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2010528743267059</v>
+        <v>0.3301896452903748</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>0.7147446554601942</v>
       </c>
       <c r="C218" t="n">
-        <v>0.395578920841217</v>
+        <v>0.3672510981559753</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>0.5045169397977036</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3067723214626312</v>
+        <v>0.3107678890228271</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>0.1401402364386536</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1494736969470978</v>
+        <v>0.2571519017219543</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>0.6130104518843715</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3440666198730469</v>
+        <v>0.3298741281032562</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>0.5229919304689966</v>
       </c>
       <c r="C222" t="n">
-        <v>0.268484354019165</v>
+        <v>0.3446082472801208</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>0.6261057321237892</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3019956946372986</v>
+        <v>0.3152153193950653</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>0.4499289681983143</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3039121627807617</v>
+        <v>0.3696244657039642</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.4176197606532118</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2809253931045532</v>
+        <v>0.4010137021541595</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.003784636967092414</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1229481622576714</v>
+        <v>0.3881142735481262</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>0.5641297874992711</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3161119222640991</v>
+        <v>0.390236109495163</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>0.4697231730986305</v>
       </c>
       <c r="C228" t="n">
-        <v>0.35884889960289</v>
+        <v>0.4486697614192963</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>0.4206654514666731</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2903031408786774</v>
+        <v>0.5663093328475952</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>0.6319267109365763</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3915734887123108</v>
+        <v>0.3773413002490997</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>0.4340910697026596</v>
       </c>
       <c r="C231" t="n">
-        <v>0.299590528011322</v>
+        <v>0.4684573411941528</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.5181294666663223</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3598813712596893</v>
+        <v>0.2933505177497864</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>0.2156160294230334</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1692713797092438</v>
+        <v>0.2337785214185715</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.03511884664886766</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1789565682411194</v>
+        <v>0.3958895206451416</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>0.5659839038897125</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3705294132232666</v>
+        <v>0.3770693242549896</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.5956898062261661</v>
       </c>
       <c r="C236" t="n">
-        <v>0.36317378282547</v>
+        <v>0.3857334852218628</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.5918293674223544</v>
       </c>
       <c r="C237" t="n">
-        <v>0.4150657057762146</v>
+        <v>0.3545975983142853</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.6315263602726591</v>
       </c>
       <c r="C238" t="n">
-        <v>0.429671972990036</v>
+        <v>0.4577820301055908</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.7133990890183162</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4143775701522827</v>
+        <v>0.3585376143455505</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.2946893472988129</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2081917822360992</v>
+        <v>0.4081933200359344</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.8553801124976155</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5012528896331787</v>
+        <v>0.3364952802658081</v>
       </c>
     </row>
   </sheetData>

--- a/code/ff.xlsx
+++ b/code/ff.xlsx
@@ -458,7 +458,7 @@
         <v>0.4718292894556023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2800672054290771</v>
+        <v>0.3584714531898499</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.2663785756567554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5050702095031738</v>
+        <v>0.2302574217319489</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.1126086634691826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2254764288663864</v>
+        <v>0.1627039313316345</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.7030151262713138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4782959818840027</v>
+        <v>0.3668118417263031</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.5562226589382566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4113345146179199</v>
+        <v>0.3432400822639465</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0.5378783324099137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3134105503559113</v>
+        <v>0.3229804635047913</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.2197002012579308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1981226354837418</v>
+        <v>0.1910901218652725</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.3821838585822958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3989981710910797</v>
+        <v>0.2398589551448822</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.5078522717367344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2829685211181641</v>
+        <v>0.2997565567493439</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0.532087093917524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3128669559955597</v>
+        <v>0.3461123704910278</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0.5890553171549628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3899155855178833</v>
+        <v>0.3976642191410065</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.6717420392927915</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4201388955116272</v>
+        <v>0.3460845947265625</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.3405811454798062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4892378449440002</v>
+        <v>0.2002029418945312</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.6085114210329622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4352708160877228</v>
+        <v>0.3391251564025879</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>0.5695969435725253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4048510193824768</v>
+        <v>0.3056843280792236</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0.4108766264549114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3685481548309326</v>
+        <v>0.2577455043792725</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.5539285091427796</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4081117212772369</v>
+        <v>0.3175245523452759</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5459438871344521</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2867115437984467</v>
+        <v>0.3040043413639069</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.7066600746344167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3832661211490631</v>
+        <v>0.4177926182746887</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.4385378859241147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3734669983386993</v>
+        <v>0.2327111065387726</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.8674903038936619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4816844463348389</v>
+        <v>0.4784742295742035</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.8945560214903108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4197415709495544</v>
+        <v>0.5078809857368469</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.5725550184541643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3584442138671875</v>
+        <v>0.338417112827301</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.4471852805991552</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4227321147918701</v>
+        <v>0.277927577495575</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.34342427790938</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263829231262207</v>
+        <v>0.2606276273727417</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.4240418383866151</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2888121604919434</v>
+        <v>0.2650609612464905</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.4522596650946362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3095260262489319</v>
+        <v>0.3138247430324554</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.6297627593167441</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4296737909317017</v>
+        <v>0.3338178992271423</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.5283024670622899</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4202159643173218</v>
+        <v>0.3507561087608337</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.4815338900163211</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3340487480163574</v>
+        <v>0.249545693397522</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4071213553944633</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4823575615882874</v>
+        <v>0.3068732619285583</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.8406700331974928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3467177748680115</v>
+        <v>0.4437211453914642</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.7041773732732988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3988374173641205</v>
+        <v>0.390238344669342</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.6391503981322637</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3905721604824066</v>
+        <v>0.3921294808387756</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.3806438523032271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4176549911499023</v>
+        <v>0.2583001852035522</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.643701813248332</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3931379020214081</v>
+        <v>0.3632948994636536</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.5725362028759602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3096957206726074</v>
+        <v>0.3662422895431519</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.5376940996563513</v>
       </c>
       <c r="C39" t="n">
-        <v>0.368190735578537</v>
+        <v>0.3471355736255646</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.5038707096362306</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3629042208194733</v>
+        <v>0.2998476922512054</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.7644148734355436</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4268488585948944</v>
+        <v>0.4029545783996582</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0.2005450778655851</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2456227242946625</v>
+        <v>0.1935469955205917</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0.5003927376628529</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4668451547622681</v>
+        <v>0.3470231890678406</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0.5899791305515257</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3181836307048798</v>
+        <v>0.3984143733978271</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0.4089015870847384</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3965823650360107</v>
+        <v>0.2323698997497559</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0.2896455357733722</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5014473795890808</v>
+        <v>0.2603011131286621</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0.333304719284623</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2325086444616318</v>
+        <v>0.2333823591470718</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0.5160024065185888</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4145849049091339</v>
+        <v>0.2924927175045013</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0.4596630687509267</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3724363446235657</v>
+        <v>0.2526007294654846</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0.4085868760299292</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3627507984638214</v>
+        <v>0.2526963651180267</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0.8137514634091724</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4022236466407776</v>
+        <v>0.448175460100174</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0.4904422594384888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2402229756116867</v>
+        <v>0.3161142468452454</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.8003206252938104</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3631929457187653</v>
+        <v>0.4884340465068817</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.5787334776234582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3148026764392853</v>
+        <v>0.3766341209411621</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.6234335561879363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4293551445007324</v>
+        <v>0.3622199892997742</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.186764377897887</v>
       </c>
       <c r="C56" t="n">
-        <v>0.27241250872612</v>
+        <v>0.166445404291153</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.5445282202999282</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4933944940567017</v>
+        <v>0.3542207479476929</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.4592514831876472</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6561784148216248</v>
+        <v>0.361298143863678</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.3078086357472377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3350593447685242</v>
+        <v>0.2466129809617996</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3100391626358032</v>
+        <v>0.1986992955207825</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.8096109494943318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4400167763233185</v>
+        <v>0.4010947942733765</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.5738071917082077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3983228802680969</v>
+        <v>0.2983664870262146</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.8731756409905234</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4487341940402985</v>
+        <v>0.49176886677742</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.4695497323174547</v>
       </c>
       <c r="C64" t="n">
-        <v>0.30240797996521</v>
+        <v>0.3084768652915955</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.6068667258742793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3491632342338562</v>
+        <v>0.3630630970001221</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.2434721805478675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3594244718551636</v>
+        <v>0.2256516218185425</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.4114272944254174</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3230836987495422</v>
+        <v>0.2404624670743942</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.5479266382031331</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3165478110313416</v>
+        <v>0.2867111563682556</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.5477011793988809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4838224053382874</v>
+        <v>0.3496097922325134</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.3082284957436617</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3634368181228638</v>
+        <v>0.2216993272304535</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.7038711963848128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3693427443504333</v>
+        <v>0.4699040055274963</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.371488874654042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2836818099021912</v>
+        <v>0.2050384730100632</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.4762348626730635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3165944516658783</v>
+        <v>0.2808520197868347</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6939883973878687</v>
       </c>
       <c r="C74" t="n">
-        <v>0.405279815196991</v>
+        <v>0.395131915807724</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.449127131789536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2906521856784821</v>
+        <v>0.2575936317443848</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.3719303008548852</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4206132590770721</v>
+        <v>0.241622731089592</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.5872753902738808</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4777728617191315</v>
+        <v>0.3196002840995789</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.9301819164990726</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4196963012218475</v>
+        <v>0.4719893336296082</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.8883460463517403</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4249959886074066</v>
+        <v>0.4812847375869751</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.8202330231885704</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4481522738933563</v>
+        <v>0.4708866775035858</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.3658223575711927</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5372742414474487</v>
+        <v>0.3855469226837158</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.6392568663399482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4842504560947418</v>
+        <v>0.4110693633556366</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.7362068195589295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.394522488117218</v>
+        <v>0.4463639855384827</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.2303442812301529</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2895062267780304</v>
+        <v>0.211270198225975</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.6188220064441875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3234328627586365</v>
+        <v>0.3212018609046936</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.2756885458031615</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3446456789970398</v>
+        <v>0.1986942887306213</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.5289969440122068</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3669667840003967</v>
+        <v>0.319686084985733</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.5595404770727759</v>
       </c>
       <c r="C88" t="n">
-        <v>0.382499635219574</v>
+        <v>0.3516578674316406</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.3140643235168202</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4464388489723206</v>
+        <v>0.2420628666877747</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.2526676624648406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4964281320571899</v>
+        <v>0.2879408299922943</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.4127381904675428</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3522796034812927</v>
+        <v>0.2576844990253448</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.3951342779447693</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2305463850498199</v>
+        <v>0.2570831477642059</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.4814090148225293</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4735907316207886</v>
+        <v>0.3093459606170654</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.5793623800096949</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3403803408145905</v>
+        <v>0.3109601140022278</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.3417202854593807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4784649610519409</v>
+        <v>0.229651153087616</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.4094408923469865</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3666864037513733</v>
+        <v>0.2428496479988098</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.6004866854835119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4896670281887054</v>
+        <v>0.3591760396957397</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.453425349718437</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3098426461219788</v>
+        <v>0.3227367997169495</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.6777444604059943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5253282189369202</v>
+        <v>0.3716527819633484</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.8167969978866652</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4104952216148376</v>
+        <v>0.4744416773319244</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.4517791695442719</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3300824463367462</v>
+        <v>0.2189347296953201</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.5668168483183852</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4282324016094208</v>
+        <v>0.3014898896217346</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.6175863780762662</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3996620178222656</v>
+        <v>0.2885795533657074</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.3522266313967708</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3648944497108459</v>
+        <v>0.2331543117761612</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.6159886993189322</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4461191594600677</v>
+        <v>0.2741120755672455</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.5821438587348391</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4908168911933899</v>
+        <v>0.395224928855896</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.7152093964646979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3370438516139984</v>
+        <v>0.4524984061717987</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.7156048294914429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3189630806446075</v>
+        <v>0.4334989786148071</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.6024929436827366</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3065722584724426</v>
+        <v>0.3817744851112366</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.7442742806809305</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3066080808639526</v>
+        <v>0.4458110332489014</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.326528740540571</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3607300519943237</v>
+        <v>0.265632301568985</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.3305320236080006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5089449286460876</v>
+        <v>0.2824503183364868</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.6557340559483333</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3386413156986237</v>
+        <v>0.3647280633449554</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.3110496799551626</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2359439432621002</v>
+        <v>0.1962341070175171</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.8101871045343427</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4533505737781525</v>
+        <v>0.4717699289321899</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.5934770141581799</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3734950721263885</v>
+        <v>0.3513568639755249</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.2076183463965128</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2637119889259338</v>
+        <v>0.2094230353832245</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.1579186337034669</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4580274224281311</v>
+        <v>0.1732850670814514</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.6516583977688162</v>
       </c>
       <c r="C119" t="n">
-        <v>0.368303507566452</v>
+        <v>0.4201074540615082</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.5003805716847527</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3259987235069275</v>
+        <v>0.3350562453269958</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.3852531313044293</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2617943584918976</v>
+        <v>0.30369633436203</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.7363774751900829</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3732270002365112</v>
+        <v>0.3559675514698029</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.3481182439465114</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3428545296192169</v>
+        <v>0.1771685928106308</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.2329683492779049</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2769818007946014</v>
+        <v>0.1719671785831451</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.4668998612469218</v>
       </c>
       <c r="C125" t="n">
-        <v>0.322685718536377</v>
+        <v>0.2715562880039215</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.5865494033047405</v>
       </c>
       <c r="C126" t="n">
-        <v>0.37175652384758</v>
+        <v>0.3075116276741028</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.5463434594426863</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2996761798858643</v>
+        <v>0.4033827185630798</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.4072987375182022</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3665753901004791</v>
+        <v>0.2985689640045166</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.8172234851210609</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4714722633361816</v>
+        <v>0.4292969107627869</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.2655126790533767</v>
       </c>
       <c r="C130" t="n">
-        <v>0.302157461643219</v>
+        <v>0.262748122215271</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4475076496601105</v>
+        <v>0.4863153398036957</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.4561219958759843</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4679469168186188</v>
+        <v>0.2904912829399109</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.6529596409868981</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4600743353366852</v>
+        <v>0.3697324991226196</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.7513501027688749</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4278516173362732</v>
+        <v>0.4734005928039551</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.4505662836508093</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4271031320095062</v>
+        <v>0.319894552230835</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.3716043921484325</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4346279203891754</v>
+        <v>0.2593694031238556</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.3602442582966465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2805741727352142</v>
+        <v>0.259196549654007</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.3383342725218927</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4058345854282379</v>
+        <v>0.2602798640727997</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.5414278154421422</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3605205416679382</v>
+        <v>0.3202254474163055</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.5978038603527056</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3607170283794403</v>
+        <v>0.3085875511169434</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.7606450446375734</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3971821665763855</v>
+        <v>0.4018742442131042</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.3248788099659551</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2971713542938232</v>
+        <v>0.2190110087394714</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.6449254707683332</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4267672896385193</v>
+        <v>0.3852537274360657</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.2910065864195924</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3873430490493774</v>
+        <v>0.2005975991487503</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.7244609142174261</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3903496563434601</v>
+        <v>0.4088215827941895</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.6177515676508191</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4558952450752258</v>
+        <v>0.331175833940506</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.4409377566944086</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4509144425392151</v>
+        <v>0.2745212912559509</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.6822471714911353</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3636813163757324</v>
+        <v>0.4585016369819641</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.229207907078953</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3543416261672974</v>
+        <v>0.2024387568235397</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.4447499953820174</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3307032883167267</v>
+        <v>0.2437346130609512</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.6523426750322254</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3726504743099213</v>
+        <v>0.399916410446167</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.2425283543276618</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2745541334152222</v>
+        <v>0.2036210298538208</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.8305519596701881</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5477388501167297</v>
+        <v>0.4505714774131775</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.6398363875567967</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3414418995380402</v>
+        <v>0.3472954332828522</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.6951128286309145</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3405948877334595</v>
+        <v>0.4962145090103149</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.5222646030184412</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4420493245124817</v>
+        <v>0.2666210830211639</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.2279199221234276</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4101766049861908</v>
+        <v>0.1971094608306885</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.6305093830814368</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3505046963691711</v>
+        <v>0.3588143289089203</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.7553070853748489</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3846090137958527</v>
+        <v>0.4608376026153564</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.6472029960903064</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4996880888938904</v>
+        <v>0.3582215011119843</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.2258732884862843</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3142108917236328</v>
+        <v>0.1684451997280121</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.5055944330192897</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3828082084655762</v>
+        <v>0.3139708340167999</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.6422702459482565</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4479875862598419</v>
+        <v>0.4045563340187073</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.5382414352954227</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4734975695610046</v>
+        <v>0.3200055658817291</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.5649658988436861</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3600292801856995</v>
+        <v>0.3456245064735413</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.5303799613737538</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4801726341247559</v>
+        <v>0.3035330772399902</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.5533608565303745</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4322681725025177</v>
+        <v>0.349120020866394</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.4531888718182911</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3327767252922058</v>
+        <v>0.2899675667285919</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.401848969295322</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2784067094326019</v>
+        <v>0.2410541921854019</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.4417667562438528</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5053969621658325</v>
+        <v>0.2490995526313782</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.4393118911669173</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3886117339134216</v>
+        <v>0.2946138381958008</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.4234953893952308</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3678858876228333</v>
+        <v>0.3321286737918854</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.612644032798873</v>
       </c>
       <c r="C173" t="n">
-        <v>0.331304669380188</v>
+        <v>0.4179776310920715</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.7158558277887077</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3595305979251862</v>
+        <v>0.3796415030956268</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.3603752761038813</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3259125649929047</v>
+        <v>0.3054040670394897</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.4191622526074782</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3813636302947998</v>
+        <v>0.2627924978733063</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.5051903811501658</v>
       </c>
       <c r="C177" t="n">
-        <v>0.572335422039032</v>
+        <v>0.2740492820739746</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.5505311948166947</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3099215626716614</v>
+        <v>0.3379248678684235</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.393052318371826</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3699355125427246</v>
+        <v>0.2718541026115417</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.574582470847295</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4243488609790802</v>
+        <v>0.3202790319919586</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.7543874769813708</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4059304296970367</v>
+        <v>0.4198689460754395</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.312601707276444</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3774996101856232</v>
+        <v>0.2349995523691177</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.5140489288122608</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3333151638507843</v>
+        <v>0.2942069470882416</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.6237623318494331</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3242374956607819</v>
+        <v>0.4012328386306763</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.7854766509746001</v>
       </c>
       <c r="C185" t="n">
-        <v>0.389291524887085</v>
+        <v>0.4430077075958252</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.2052686182343323</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2695153951644897</v>
+        <v>0.1685348451137543</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.4651482820979406</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2965600192546844</v>
+        <v>0.3074085712432861</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.6162745222965682</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3403877913951874</v>
+        <v>0.4364646971225739</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.5397773290067381</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3076494634151459</v>
+        <v>0.3812335133552551</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.4897300470567975</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4413090646266937</v>
+        <v>0.3536723852157593</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.6569320533147465</v>
       </c>
       <c r="C191" t="n">
-        <v>0.4276572465896606</v>
+        <v>0.3236981332302094</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.5879092420299313</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2927473187446594</v>
+        <v>0.3068799674510956</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.6467239737471064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4025132954120636</v>
+        <v>0.3230079412460327</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.3413952725234781</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2287614047527313</v>
+        <v>0.2815335392951965</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.7381181548437215</v>
       </c>
       <c r="C195" t="n">
-        <v>0.390975296497345</v>
+        <v>0.4344366192817688</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.5887458521465457</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3836422264575958</v>
+        <v>0.2930181324481964</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.6326483208753498</v>
       </c>
       <c r="C197" t="n">
-        <v>0.409216582775116</v>
+        <v>0.2803178429603577</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.6789825665000031</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3891631066799164</v>
+        <v>0.4054732918739319</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.5594678183516649</v>
       </c>
       <c r="C199" t="n">
-        <v>0.345697283744812</v>
+        <v>0.2898629903793335</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.4366450205489274</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4453403651714325</v>
+        <v>0.2926265001296997</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.3705161228666759</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4243420362472534</v>
+        <v>0.2397582978010178</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.6371207124728865</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4336207211017609</v>
+        <v>0.4162944853305817</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>0.4631410104767616</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4952230453491211</v>
+        <v>0.3336998224258423</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>0.4886493512147775</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3614612519741058</v>
+        <v>0.3342572748661041</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.4188489226799816</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4850036203861237</v>
+        <v>0.2524551749229431</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>0.6922659580528661</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4183411002159119</v>
+        <v>0.373640239238739</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>0.5198235067264689</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4064033329486847</v>
+        <v>0.2816038727760315</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>0.1787363632444668</v>
       </c>
       <c r="C208" t="n">
-        <v>0.3881812691688538</v>
+        <v>0.1570239216089249</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>0.9479314522908466</v>
       </c>
       <c r="C209" t="n">
-        <v>0.4166781008243561</v>
+        <v>0.5001085996627808</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>0.6128070595014323</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4719864726066589</v>
+        <v>0.3890681266784668</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>0.5380828192106912</v>
       </c>
       <c r="C211" t="n">
-        <v>0.4284951388835907</v>
+        <v>0.3430821895599365</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.7870022409526501</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3680971562862396</v>
+        <v>0.5110015869140625</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.4579198743362359</v>
       </c>
       <c r="C213" t="n">
-        <v>0.4276140034198761</v>
+        <v>0.3002223670482635</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>0.4867562538305085</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2878839671611786</v>
+        <v>0.2910612523555756</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>0.5693761428778963</v>
       </c>
       <c r="C215" t="n">
-        <v>0.426360011100769</v>
+        <v>0.3141308128833771</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>0.3386943968433396</v>
       </c>
       <c r="C216" t="n">
-        <v>0.459390789270401</v>
+        <v>0.2545609772205353</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>0.3623159110575627</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3301896452903748</v>
+        <v>0.2010528743267059</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>0.7147446554601942</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3672510981559753</v>
+        <v>0.395578920841217</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>0.5045169397977036</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3107678890228271</v>
+        <v>0.3067723214626312</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>0.1401402364386536</v>
       </c>
       <c r="C220" t="n">
-        <v>0.2571519017219543</v>
+        <v>0.1494736969470978</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>0.6130104518843715</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3298741281032562</v>
+        <v>0.3440666198730469</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>0.5229919304689966</v>
       </c>
       <c r="C222" t="n">
-        <v>0.3446082472801208</v>
+        <v>0.268484354019165</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>0.6261057321237892</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3152153193950653</v>
+        <v>0.3019956946372986</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>0.4499289681983143</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3696244657039642</v>
+        <v>0.3039121627807617</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.4176197606532118</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4010137021541595</v>
+        <v>0.2809253931045532</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.003784636967092414</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3881142735481262</v>
+        <v>0.1229481622576714</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>0.5641297874992711</v>
       </c>
       <c r="C227" t="n">
-        <v>0.390236109495163</v>
+        <v>0.3161119222640991</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>0.4697231730986305</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4486697614192963</v>
+        <v>0.35884889960289</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>0.4206654514666731</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5663093328475952</v>
+        <v>0.2903031408786774</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>0.6319267109365763</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3773413002490997</v>
+        <v>0.3915734887123108</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>0.4340910697026596</v>
       </c>
       <c r="C231" t="n">
-        <v>0.4684573411941528</v>
+        <v>0.299590528011322</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.5181294666663223</v>
       </c>
       <c r="C232" t="n">
-        <v>0.2933505177497864</v>
+        <v>0.3598813712596893</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>0.2156160294230334</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2337785214185715</v>
+        <v>0.1692713797092438</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.03511884664886766</v>
       </c>
       <c r="C234" t="n">
-        <v>0.3958895206451416</v>
+        <v>0.1789565682411194</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>0.5659839038897125</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3770693242549896</v>
+        <v>0.3705294132232666</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.5956898062261661</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3857334852218628</v>
+        <v>0.36317378282547</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.5918293674223544</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3545975983142853</v>
+        <v>0.4150657057762146</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.6315263602726591</v>
       </c>
       <c r="C238" t="n">
-        <v>0.4577820301055908</v>
+        <v>0.429671972990036</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.7133990890183162</v>
       </c>
       <c r="C239" t="n">
-        <v>0.3585376143455505</v>
+        <v>0.4143775701522827</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.2946893472988129</v>
       </c>
       <c r="C240" t="n">
-        <v>0.4081933200359344</v>
+        <v>0.2081917822360992</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.8553801124976155</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3364952802658081</v>
+        <v>0.5012528896331787</v>
       </c>
     </row>
   </sheetData>

--- a/code/ff.xlsx
+++ b/code/ff.xlsx
@@ -458,7 +458,7 @@
         <v>0.4718292894556023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3584714531898499</v>
+        <v>0.3012802600860596</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.2663785756567554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2302574217319489</v>
+        <v>0.2504742443561554</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.1126086634691826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1627039313316345</v>
+        <v>0.1863798201084137</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.7030151262713138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3668118417263031</v>
+        <v>0.3905285596847534</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.5562226589382566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3432400822639465</v>
+        <v>0.3228508532047272</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0.5378783324099137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3229804635047913</v>
+        <v>0.3111382722854614</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.2197002012579308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1910901218652725</v>
+        <v>0.2551641762256622</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.3821838585822958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2398589551448822</v>
+        <v>0.2685779631137848</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.5078522717367344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2997565567493439</v>
+        <v>0.3204825222492218</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0.532087093917524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3461123704910278</v>
+        <v>0.3109931945800781</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0.5890553171549628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3976642191410065</v>
+        <v>0.3784797787666321</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.6717420392927915</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3460845947265625</v>
+        <v>0.3699770569801331</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.3405811454798062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2002029418945312</v>
+        <v>0.3129520118236542</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.6085114210329622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3391251564025879</v>
+        <v>0.3632672727108002</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>0.5695969435725253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3056843280792236</v>
+        <v>0.3646588027477264</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0.4108766264549114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2577455043792725</v>
+        <v>0.3048602342605591</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.5539285091427796</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3175245523452759</v>
+        <v>0.3880194127559662</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5459438871344521</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3040043413639069</v>
+        <v>0.3211524188518524</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.7066600746344167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4177926182746887</v>
+        <v>0.3834874629974365</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.4385378859241147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2327111065387726</v>
+        <v>0.2712445259094238</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.8674903038936619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4784742295742035</v>
+        <v>0.4034221768379211</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.8945560214903108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5078809857368469</v>
+        <v>0.4298654198646545</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.5725550184541643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.338417112827301</v>
+        <v>0.3426400721073151</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.4471852805991552</v>
       </c>
       <c r="C25" t="n">
-        <v>0.277927577495575</v>
+        <v>0.3061585128307343</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.34342427790938</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2606276273727417</v>
+        <v>0.2640393972396851</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.4240418383866151</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2650609612464905</v>
+        <v>0.2992261350154877</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.4522596650946362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3138247430324554</v>
+        <v>0.3138464987277985</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.6297627593167441</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3338178992271423</v>
+        <v>0.3570608198642731</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.5283024670622899</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3507561087608337</v>
+        <v>0.3082205653190613</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.4815338900163211</v>
       </c>
       <c r="C31" t="n">
-        <v>0.249545693397522</v>
+        <v>0.3258762359619141</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4071213553944633</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3068732619285583</v>
+        <v>0.3345139622688293</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.8406700331974928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4437211453914642</v>
+        <v>0.4164769053459167</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.7041773732732988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.390238344669342</v>
+        <v>0.3707099258899689</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.6391503981322637</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3921294808387756</v>
+        <v>0.3463855087757111</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.3806438523032271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2583001852035522</v>
+        <v>0.328957736492157</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.643701813248332</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3632948994636536</v>
+        <v>0.3520583808422089</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.5725362028759602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3662422895431519</v>
+        <v>0.3279017806053162</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.5376940996563513</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3471355736255646</v>
+        <v>0.3202548325061798</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.5038707096362306</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2998476922512054</v>
+        <v>0.3067526817321777</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.7644148734355436</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4029545783996582</v>
+        <v>0.4092472493648529</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0.2005450778655851</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1935469955205917</v>
+        <v>0.2415615767240524</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0.5003927376628529</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3470231890678406</v>
+        <v>0.3417916297912598</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0.5899791305515257</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3984143733978271</v>
+        <v>0.3634026944637299</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0.4089015870847384</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2323698997497559</v>
+        <v>0.2872469425201416</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0.2896455357733722</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2603011131286621</v>
+        <v>0.2798677980899811</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0.333304719284623</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2333823591470718</v>
+        <v>0.2518196403980255</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0.5160024065185888</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2924927175045013</v>
+        <v>0.3213017582893372</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0.4596630687509267</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2526007294654846</v>
+        <v>0.3031203746795654</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0.4085868760299292</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2526963651180267</v>
+        <v>0.3175734281539917</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0.8137514634091724</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448175460100174</v>
+        <v>0.4460083246231079</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0.4904422594384888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3161142468452454</v>
+        <v>0.3218487203121185</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.8003206252938104</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4884340465068817</v>
+        <v>0.4763549864292145</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.5787334776234582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3766341209411621</v>
+        <v>0.3611535429954529</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.6234335561879363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3622199892997742</v>
+        <v>0.3401508033275604</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.186764377897887</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166445404291153</v>
+        <v>0.2125186622142792</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.5445282202999282</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3542207479476929</v>
+        <v>0.3209510147571564</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.4592514831876472</v>
       </c>
       <c r="C58" t="n">
-        <v>0.361298143863678</v>
+        <v>0.3322112858295441</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.3078086357472377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2466129809617996</v>
+        <v>0.2785652577877045</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1986992955207825</v>
+        <v>0.1711001396179199</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.8096109494943318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4010947942733765</v>
+        <v>0.4025696814060211</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.5738071917082077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2983664870262146</v>
+        <v>0.3144574761390686</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.8731756409905234</v>
       </c>
       <c r="C63" t="n">
-        <v>0.49176886677742</v>
+        <v>0.3866601884365082</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.4695497323174547</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3084768652915955</v>
+        <v>0.3324480652809143</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.6068667258742793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3630630970001221</v>
+        <v>0.3545563220977783</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.2434721805478675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2256516218185425</v>
+        <v>0.2969633340835571</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.4114272944254174</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2404624670743942</v>
+        <v>0.2980005741119385</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.5479266382031331</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2867111563682556</v>
+        <v>0.320691704750061</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.5477011793988809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3496097922325134</v>
+        <v>0.3802631795406342</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.3082284957436617</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2216993272304535</v>
+        <v>0.2658630311489105</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.7038711963848128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4699040055274963</v>
+        <v>0.3985363841056824</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.371488874654042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2050384730100632</v>
+        <v>0.2705282866954803</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.4762348626730635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2808520197868347</v>
+        <v>0.2950189113616943</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6939883973878687</v>
       </c>
       <c r="C74" t="n">
-        <v>0.395131915807724</v>
+        <v>0.399543434381485</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.449127131789536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2575936317443848</v>
+        <v>0.2933976054191589</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.3719303008548852</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241622731089592</v>
+        <v>0.2755948901176453</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.5872753902738808</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3196002840995789</v>
+        <v>0.3848403692245483</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.9301819164990726</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4719893336296082</v>
+        <v>0.4251559674739838</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.8883460463517403</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4812847375869751</v>
+        <v>0.4211215972900391</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.8202330231885704</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4708866775035858</v>
+        <v>0.3813499510288239</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.3658223575711927</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3855469226837158</v>
+        <v>0.2671923637390137</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.6392568663399482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4110693633556366</v>
+        <v>0.3567295968532562</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.7362068195589295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4463639855384827</v>
+        <v>0.4089365899562836</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.2303442812301529</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211270198225975</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.6188220064441875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3212018609046936</v>
+        <v>0.3553457260131836</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.2756885458031615</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1986942887306213</v>
+        <v>0.264664888381958</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.5289969440122068</v>
       </c>
       <c r="C87" t="n">
-        <v>0.319686084985733</v>
+        <v>0.3473069965839386</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.5595404770727759</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3516578674316406</v>
+        <v>0.3551669716835022</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.3140643235168202</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2420628666877747</v>
+        <v>0.2925072610378265</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.2526676624648406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2879408299922943</v>
+        <v>0.2523484528064728</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.4127381904675428</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2576844990253448</v>
+        <v>0.2915766835212708</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.3951342779447693</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2570831477642059</v>
+        <v>0.2997595071792603</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.4814090148225293</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3093459606170654</v>
+        <v>0.3266715109348297</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.5793623800096949</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3109601140022278</v>
+        <v>0.3373076021671295</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.3417202854593807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229651153087616</v>
+        <v>0.332939088344574</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.4094408923469865</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2428496479988098</v>
+        <v>0.2512916922569275</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.6004866854835119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3591760396957397</v>
+        <v>0.348604291677475</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.453425349718437</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3227367997169495</v>
+        <v>0.3095379769802094</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.6777444604059943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3716527819633484</v>
+        <v>0.3854981958866119</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.8167969978866652</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4744416773319244</v>
+        <v>0.4044569432735443</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.4517791695442719</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2189347296953201</v>
+        <v>0.3201337456703186</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.5668168483183852</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3014898896217346</v>
+        <v>0.3158918023109436</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.6175863780762662</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2885795533657074</v>
+        <v>0.3281418085098267</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.3522266313967708</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2331543117761612</v>
+        <v>0.2465976178646088</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.6159886993189322</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2741120755672455</v>
+        <v>0.3279949724674225</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.5821438587348391</v>
       </c>
       <c r="C106" t="n">
-        <v>0.395224928855896</v>
+        <v>0.3680520355701447</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.7152093964646979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4524984061717987</v>
+        <v>0.3787524998188019</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.7156048294914429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4334989786148071</v>
+        <v>0.3816579580307007</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.6024929436827366</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3817744851112366</v>
+        <v>0.3563843667507172</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.7442742806809305</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4458110332489014</v>
+        <v>0.3914246261119843</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.326528740540571</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265632301568985</v>
+        <v>0.3040520250797272</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.3305320236080006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2824503183364868</v>
+        <v>0.2766251266002655</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.6557340559483333</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3647280633449554</v>
+        <v>0.3572379052639008</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.3110496799551626</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1962341070175171</v>
+        <v>0.2562424838542938</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.8101871045343427</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4717699289321899</v>
+        <v>0.4207941591739655</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.5934770141581799</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3513568639755249</v>
+        <v>0.3536885678768158</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.2076183463965128</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2094230353832245</v>
+        <v>0.2190341353416443</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.1579186337034669</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1732850670814514</v>
+        <v>0.2342034876346588</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.6516583977688162</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4201074540615082</v>
+        <v>0.3090153634548187</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.5003805716847527</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3350562453269958</v>
+        <v>0.3625924587249756</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.3852531313044293</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30369633436203</v>
+        <v>0.3075237274169922</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.7363774751900829</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3559675514698029</v>
+        <v>0.3688942492008209</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.3481182439465114</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1771685928106308</v>
+        <v>0.2669634521007538</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.2329683492779049</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1719671785831451</v>
+        <v>0.2624796032905579</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.4668998612469218</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2715562880039215</v>
+        <v>0.3128005862236023</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.5865494033047405</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3075116276741028</v>
+        <v>0.3186877071857452</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.5463434594426863</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4033827185630798</v>
+        <v>0.3339145183563232</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.4072987375182022</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2985689640045166</v>
+        <v>0.2966647148132324</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.8172234851210609</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4292969107627869</v>
+        <v>0.4027939736843109</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.2655126790533767</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262748122215271</v>
+        <v>0.2302440851926804</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4863153398036957</v>
+        <v>0.4348098337650299</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.4561219958759843</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2904912829399109</v>
+        <v>0.3551146388053894</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.6529596409868981</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3697324991226196</v>
+        <v>0.3548021018505096</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.7513501027688749</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4734005928039551</v>
+        <v>0.389038622379303</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.4505662836508093</v>
       </c>
       <c r="C135" t="n">
-        <v>0.319894552230835</v>
+        <v>0.3109111189842224</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.3716043921484325</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2593694031238556</v>
+        <v>0.2974668443202972</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.3602442582966465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259196549654007</v>
+        <v>0.2829892635345459</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.3383342725218927</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2602798640727997</v>
+        <v>0.2474231123924255</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.5414278154421422</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3202254474163055</v>
+        <v>0.3045995533466339</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.5978038603527056</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3085875511169434</v>
+        <v>0.3555777072906494</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.7606450446375734</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4018742442131042</v>
+        <v>0.4114838838577271</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.3248788099659551</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2190110087394714</v>
+        <v>0.2479649633169174</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.6449254707683332</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3852537274360657</v>
+        <v>0.336914449930191</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.2910065864195924</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2005975991487503</v>
+        <v>0.2290596663951874</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.7244609142174261</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4088215827941895</v>
+        <v>0.334004282951355</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.6177515676508191</v>
       </c>
       <c r="C146" t="n">
-        <v>0.331175833940506</v>
+        <v>0.3254185914993286</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.4409377566944086</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2745212912559509</v>
+        <v>0.2936669588088989</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.6822471714911353</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4585016369819641</v>
+        <v>0.3930828869342804</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.229207907078953</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2024387568235397</v>
+        <v>0.221895232796669</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.4447499953820174</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2437346130609512</v>
+        <v>0.3048452734947205</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.6523426750322254</v>
       </c>
       <c r="C151" t="n">
-        <v>0.399916410446167</v>
+        <v>0.3641874492168427</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.2425283543276618</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2036210298538208</v>
+        <v>0.2417089343070984</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.8305519596701881</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4505714774131775</v>
+        <v>0.440483033657074</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.6398363875567967</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3472954332828522</v>
+        <v>0.3475383520126343</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.6951128286309145</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4962145090103149</v>
+        <v>0.4092824757099152</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.5222646030184412</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2666210830211639</v>
+        <v>0.3475001156330109</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.2279199221234276</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1971094608306885</v>
+        <v>0.2638831734657288</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.6305093830814368</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3588143289089203</v>
+        <v>0.3949963450431824</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.7553070853748489</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4608376026153564</v>
+        <v>0.415307879447937</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.6472029960903064</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3582215011119843</v>
+        <v>0.3637090623378754</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.2258732884862843</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1684451997280121</v>
+        <v>0.2037807106971741</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.5055944330192897</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3139708340167999</v>
+        <v>0.3581000864505768</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.6422702459482565</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4045563340187073</v>
+        <v>0.3394140005111694</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.5382414352954227</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3200055658817291</v>
+        <v>0.3156325817108154</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.5649658988436861</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3456245064735413</v>
+        <v>0.32876056432724</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.5303799613737538</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3035330772399902</v>
+        <v>0.2989640235900879</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.5533608565303745</v>
       </c>
       <c r="C167" t="n">
-        <v>0.349120020866394</v>
+        <v>0.3512397706508636</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.4531888718182911</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2899675667285919</v>
+        <v>0.2998546063899994</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.401848969295322</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2410541921854019</v>
+        <v>0.2819216549396515</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.4417667562438528</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2490995526313782</v>
+        <v>0.3202259242534637</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.4393118911669173</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2946138381958008</v>
+        <v>0.3484539091587067</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.4234953893952308</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3321286737918854</v>
+        <v>0.3228376507759094</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.612644032798873</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4179776310920715</v>
+        <v>0.3251441419124603</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.7158558277887077</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3796415030956268</v>
+        <v>0.3437033593654633</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.3603752761038813</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3054040670394897</v>
+        <v>0.2996416985988617</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.4191622526074782</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2627924978733063</v>
+        <v>0.2948406338691711</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.5051903811501658</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2740492820739746</v>
+        <v>0.3458338975906372</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.5505311948166947</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3379248678684235</v>
+        <v>0.2998038828372955</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.393052318371826</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2718541026115417</v>
+        <v>0.254956841468811</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.574582470847295</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3202790319919586</v>
+        <v>0.3562244176864624</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.7543874769813708</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4198689460754395</v>
+        <v>0.3818352818489075</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.312601707276444</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2349995523691177</v>
+        <v>0.2472872734069824</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.5140489288122608</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2942069470882416</v>
+        <v>0.3511329889297485</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.6237623318494331</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4012328386306763</v>
+        <v>0.3436769545078278</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.7854766509746001</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4430077075958252</v>
+        <v>0.4031146168708801</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.2052686182343323</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1685348451137543</v>
+        <v>0.2209659665822983</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.4651482820979406</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3074085712432861</v>
+        <v>0.3011743426322937</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.6162745222965682</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4364646971225739</v>
+        <v>0.3635029494762421</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.5397773290067381</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3812335133552551</v>
+        <v>0.3672282099723816</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.4897300470567975</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3536723852157593</v>
+        <v>0.3202085494995117</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.6569320533147465</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3236981332302094</v>
+        <v>0.3414907157421112</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.5879092420299313</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3068799674510956</v>
+        <v>0.3619042634963989</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.6467239737471064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3230079412460327</v>
+        <v>0.3473035395145416</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.3413952725234781</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2815335392951965</v>
+        <v>0.2625297605991364</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.7381181548437215</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4344366192817688</v>
+        <v>0.3648695647716522</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.5887458521465457</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2930181324481964</v>
+        <v>0.3593446612358093</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.6326483208753498</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2803178429603577</v>
+        <v>0.3590371608734131</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.6789825665000031</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4054732918739319</v>
+        <v>0.3646087646484375</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.5594678183516649</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2898629903793335</v>
+        <v>0.282008945941925</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.4366450205489274</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2926265001296997</v>
+        <v>0.3199330568313599</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.3705161228666759</v>
       </c>
       <c r="C201" t="n">
-        <v>0.2397582978010178</v>
+        <v>0.3109845817089081</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.6371207124728865</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4162944853305817</v>
+        <v>0.3630879521369934</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>0.4631410104767616</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3336998224258423</v>
+        <v>0.3034780025482178</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>0.4886493512147775</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3342572748661041</v>
+        <v>0.2941492199897766</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.4188489226799816</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2524551749229431</v>
+        <v>0.2910186052322388</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>0.6922659580528661</v>
       </c>
       <c r="C206" t="n">
-        <v>0.373640239238739</v>
+        <v>0.3484833836555481</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>0.5198235067264689</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2816038727760315</v>
+        <v>0.3167439997196198</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>0.1787363632444668</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1570239216089249</v>
+        <v>0.2561859786510468</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>0.9479314522908466</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5001085996627808</v>
+        <v>0.4398033022880554</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>0.6128070595014323</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3890681266784668</v>
+        <v>0.3530303537845612</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>0.5380828192106912</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3430821895599365</v>
+        <v>0.3549987077713013</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.7870022409526501</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5110015869140625</v>
+        <v>0.3647055327892303</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.4579198743362359</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3002223670482635</v>
+        <v>0.3247435390949249</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>0.4867562538305085</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2910612523555756</v>
+        <v>0.3102851808071136</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>0.5693761428778963</v>
       </c>
       <c r="C215" t="n">
-        <v>0.3141308128833771</v>
+        <v>0.3085424602031708</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>0.3386943968433396</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2545609772205353</v>
+        <v>0.2952964007854462</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>0.3623159110575627</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2010528743267059</v>
+        <v>0.2506773471832275</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>0.7147446554601942</v>
       </c>
       <c r="C218" t="n">
-        <v>0.395578920841217</v>
+        <v>0.3802588582038879</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>0.5045169397977036</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3067723214626312</v>
+        <v>0.3520343601703644</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>0.1401402364386536</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1494736969470978</v>
+        <v>0.2042438983917236</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>0.6130104518843715</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3440666198730469</v>
+        <v>0.3306215107440948</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>0.5229919304689966</v>
       </c>
       <c r="C222" t="n">
-        <v>0.268484354019165</v>
+        <v>0.3162724673748016</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>0.6261057321237892</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3019956946372986</v>
+        <v>0.342561274766922</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>0.4499289681983143</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3039121627807617</v>
+        <v>0.2923728823661804</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.4176197606532118</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2809253931045532</v>
+        <v>0.2953807711601257</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.003784636967092414</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1229481622576714</v>
+        <v>0.1864545941352844</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>0.5641297874992711</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3161119222640991</v>
+        <v>0.3132887780666351</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>0.4697231730986305</v>
       </c>
       <c r="C228" t="n">
-        <v>0.35884889960289</v>
+        <v>0.311331033706665</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>0.4206654514666731</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2903031408786774</v>
+        <v>0.282197892665863</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>0.6319267109365763</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3915734887123108</v>
+        <v>0.363290935754776</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>0.4340910697026596</v>
       </c>
       <c r="C231" t="n">
-        <v>0.299590528011322</v>
+        <v>0.2850708663463593</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.5181294666663223</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3598813712596893</v>
+        <v>0.3322508633136749</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>0.2156160294230334</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1692713797092438</v>
+        <v>0.2351742088794708</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.03511884664886766</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1789565682411194</v>
+        <v>0.2261188477277756</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>0.5659839038897125</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3705294132232666</v>
+        <v>0.3372502624988556</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.5956898062261661</v>
       </c>
       <c r="C236" t="n">
-        <v>0.36317378282547</v>
+        <v>0.3197153210639954</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.5918293674223544</v>
       </c>
       <c r="C237" t="n">
-        <v>0.4150657057762146</v>
+        <v>0.3119047880172729</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.6315263602726591</v>
       </c>
       <c r="C238" t="n">
-        <v>0.429671972990036</v>
+        <v>0.3658110201358795</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.7133990890183162</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4143775701522827</v>
+        <v>0.3673279881477356</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.2946893472988129</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2081917822360992</v>
+        <v>0.2878139019012451</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.8553801124976155</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5012528896331787</v>
+        <v>0.4335365295410156</v>
       </c>
     </row>
   </sheetData>
